--- a/data/pca/factorExposure/factorExposure_2009-07-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01670571149998011</v>
+        <v>0.01659373061325731</v>
       </c>
       <c r="C2">
-        <v>0.001283432806761894</v>
+        <v>0.0008629435255383388</v>
       </c>
       <c r="D2">
-        <v>0.008288998819297802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009098984097113415</v>
+      </c>
+      <c r="E2">
+        <v>0.001138938021089674</v>
+      </c>
+      <c r="F2">
+        <v>0.01259178399835344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09085683207138101</v>
+        <v>0.09160409281493573</v>
       </c>
       <c r="C4">
-        <v>0.01967989879659341</v>
+        <v>0.01439197668590848</v>
       </c>
       <c r="D4">
-        <v>0.07286169120135648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0832422634718181</v>
+      </c>
+      <c r="E4">
+        <v>0.02839466176662993</v>
+      </c>
+      <c r="F4">
+        <v>-0.03257949847600479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1522016692971593</v>
+        <v>0.1612040321433188</v>
       </c>
       <c r="C6">
-        <v>0.02875790559468235</v>
+        <v>0.02781463969085721</v>
       </c>
       <c r="D6">
-        <v>-0.03115760550105115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02652931456220875</v>
+      </c>
+      <c r="E6">
+        <v>0.009466636474026706</v>
+      </c>
+      <c r="F6">
+        <v>-0.0426323082243221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06177011315904065</v>
+        <v>0.06270271028472767</v>
       </c>
       <c r="C7">
-        <v>0.002174360999813167</v>
+        <v>-0.001673178811358934</v>
       </c>
       <c r="D7">
-        <v>0.04412264787598463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05248681916381916</v>
+      </c>
+      <c r="E7">
+        <v>0.013245940531508</v>
+      </c>
+      <c r="F7">
+        <v>-0.04888914416275459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06248868671821244</v>
+        <v>0.05810273030933277</v>
       </c>
       <c r="C8">
-        <v>-0.01078654327627412</v>
+        <v>-0.01256970248323084</v>
       </c>
       <c r="D8">
-        <v>0.02676827835749681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03050440037820352</v>
+      </c>
+      <c r="E8">
+        <v>0.01686186539822056</v>
+      </c>
+      <c r="F8">
+        <v>0.02591982990419918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07071150042583955</v>
+        <v>0.07066818916462472</v>
       </c>
       <c r="C9">
-        <v>0.01643292443448086</v>
+        <v>0.01027743969277061</v>
       </c>
       <c r="D9">
-        <v>0.07286840551460422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0863296766990221</v>
+      </c>
+      <c r="E9">
+        <v>0.02497833859944969</v>
+      </c>
+      <c r="F9">
+        <v>-0.0487053792699531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08541873838408753</v>
+        <v>0.08903933673941307</v>
       </c>
       <c r="C10">
-        <v>0.01383808578680737</v>
+        <v>0.021224930914828</v>
       </c>
       <c r="D10">
-        <v>-0.1657060776552952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.160681654203106</v>
+      </c>
+      <c r="E10">
+        <v>-0.03278373066935991</v>
+      </c>
+      <c r="F10">
+        <v>0.05739681480281126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09112911932634703</v>
+        <v>0.08783373371239239</v>
       </c>
       <c r="C11">
-        <v>0.01740938155110031</v>
+        <v>0.0109876770469071</v>
       </c>
       <c r="D11">
-        <v>0.1037404606802307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1174759361120783</v>
+      </c>
+      <c r="E11">
+        <v>0.04739083112848342</v>
+      </c>
+      <c r="F11">
+        <v>-0.02259085976680315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09628216834784588</v>
+        <v>0.09069218309767715</v>
       </c>
       <c r="C12">
-        <v>0.01517234190921896</v>
+        <v>0.008143344749992927</v>
       </c>
       <c r="D12">
-        <v>0.1068041256878201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1320359420150604</v>
+      </c>
+      <c r="E12">
+        <v>0.04682300182255986</v>
+      </c>
+      <c r="F12">
+        <v>-0.0297863487423166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04397964753050793</v>
+        <v>0.04361432647552281</v>
       </c>
       <c r="C13">
-        <v>0.005710074929505302</v>
+        <v>0.002395383143885858</v>
       </c>
       <c r="D13">
-        <v>0.03321394260749631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05337590607100491</v>
+      </c>
+      <c r="E13">
+        <v>-0.0003808791775777867</v>
+      </c>
+      <c r="F13">
+        <v>-0.004111622022896499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01863334329981383</v>
+        <v>0.0231657934332363</v>
       </c>
       <c r="C14">
-        <v>0.01486349493288358</v>
+        <v>0.01367647666420061</v>
       </c>
       <c r="D14">
-        <v>0.0271427282952912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03331125573696794</v>
+      </c>
+      <c r="E14">
+        <v>0.01812570513971628</v>
+      </c>
+      <c r="F14">
+        <v>-0.01330868486124312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03340782906028265</v>
+        <v>0.03316818978073285</v>
       </c>
       <c r="C15">
-        <v>0.007395043267462913</v>
+        <v>0.005142931648716416</v>
       </c>
       <c r="D15">
-        <v>0.03839442239103137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04624660588972215</v>
+      </c>
+      <c r="E15">
+        <v>0.007654583139380615</v>
+      </c>
+      <c r="F15">
+        <v>-0.02962478305735058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07539765420932344</v>
+        <v>0.07324037143137069</v>
       </c>
       <c r="C16">
-        <v>0.007932358903709627</v>
+        <v>0.001352820203820979</v>
       </c>
       <c r="D16">
-        <v>0.1053681231875868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1282618069637388</v>
+      </c>
+      <c r="E16">
+        <v>0.06196325069847252</v>
+      </c>
+      <c r="F16">
+        <v>-0.02569656148864101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0003033395939054274</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002443687221036065</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001548369517179375</v>
+      </c>
+      <c r="E17">
+        <v>0.001168017988198374</v>
+      </c>
+      <c r="F17">
+        <v>0.002479786510843849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01798937921533312</v>
+        <v>0.03898849724302111</v>
       </c>
       <c r="C18">
-        <v>-0.003220139467223694</v>
+        <v>-0.002919295794192141</v>
       </c>
       <c r="D18">
-        <v>0.02738080088088296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01550211682109904</v>
+      </c>
+      <c r="E18">
+        <v>-0.007830406575207985</v>
+      </c>
+      <c r="F18">
+        <v>0.008907931169835142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06388719637153729</v>
+        <v>0.0625966200578421</v>
       </c>
       <c r="C20">
-        <v>0.005763198900725052</v>
+        <v>0.0007239591284461207</v>
       </c>
       <c r="D20">
-        <v>0.06401219183697333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07863019415418934</v>
+      </c>
+      <c r="E20">
+        <v>0.05743791735831293</v>
+      </c>
+      <c r="F20">
+        <v>-0.02931014854627829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03842629200412647</v>
+        <v>0.04130543676643823</v>
       </c>
       <c r="C21">
-        <v>0.009554705302813615</v>
+        <v>0.006512019808915468</v>
       </c>
       <c r="D21">
-        <v>0.03604647034713059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0377472826131104</v>
+      </c>
+      <c r="E21">
+        <v>-0.001232656337213183</v>
+      </c>
+      <c r="F21">
+        <v>0.0268431743072851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04177683779057808</v>
+        <v>0.04420213424557667</v>
       </c>
       <c r="C22">
-        <v>0.00168562342755073</v>
+        <v>0.0009514703072690001</v>
       </c>
       <c r="D22">
-        <v>-0.003390465039370906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006347557803885227</v>
+      </c>
+      <c r="E22">
+        <v>0.03629858260583073</v>
+      </c>
+      <c r="F22">
+        <v>0.0497523125958346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04173976745314183</v>
+        <v>0.04417806076739449</v>
       </c>
       <c r="C23">
-        <v>0.001675420340671274</v>
+        <v>0.0009426319765169741</v>
       </c>
       <c r="D23">
-        <v>-0.003367315543678088</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006362294111238167</v>
+      </c>
+      <c r="E23">
+        <v>0.03648132652080208</v>
+      </c>
+      <c r="F23">
+        <v>0.04972431068756109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08209414670039926</v>
+        <v>0.07902453991167795</v>
       </c>
       <c r="C24">
-        <v>0.008220133267561016</v>
+        <v>0.00201826253505613</v>
       </c>
       <c r="D24">
-        <v>0.1089378814645218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1206019554409176</v>
+      </c>
+      <c r="E24">
+        <v>0.04970468505609411</v>
+      </c>
+      <c r="F24">
+        <v>-0.02836402507500992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08744753457224738</v>
+        <v>0.08407985067517182</v>
       </c>
       <c r="C25">
-        <v>0.01086267113807557</v>
+        <v>0.004684791263764761</v>
       </c>
       <c r="D25">
-        <v>0.09479060699209046</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.109749380289673</v>
+      </c>
+      <c r="E25">
+        <v>0.03263008255636048</v>
+      </c>
+      <c r="F25">
+        <v>-0.02593537958782229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05784137930597989</v>
+        <v>0.05953486620544202</v>
       </c>
       <c r="C26">
-        <v>0.01748081091723478</v>
+        <v>0.01457727006751618</v>
       </c>
       <c r="D26">
-        <v>0.0255209259098922</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04357400544663446</v>
+      </c>
+      <c r="E26">
+        <v>0.03026953060665068</v>
+      </c>
+      <c r="F26">
+        <v>0.00776889011252225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.132722544747113</v>
+        <v>0.1416219341001886</v>
       </c>
       <c r="C28">
-        <v>0.01268044216797358</v>
+        <v>0.02273961389436738</v>
       </c>
       <c r="D28">
-        <v>-0.2708184209526553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2610012424321516</v>
+      </c>
+      <c r="E28">
+        <v>-0.06849699841197189</v>
+      </c>
+      <c r="F28">
+        <v>-0.005837624122361259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02539427442935323</v>
+        <v>0.02864869259028598</v>
       </c>
       <c r="C29">
-        <v>0.009630495355599457</v>
+        <v>0.008849893470340334</v>
       </c>
       <c r="D29">
-        <v>0.02533285804963314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03116565335676546</v>
+      </c>
+      <c r="E29">
+        <v>0.01289400437143747</v>
+      </c>
+      <c r="F29">
+        <v>0.01291916278053224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06304783301742525</v>
+        <v>0.05853972061655308</v>
       </c>
       <c r="C30">
-        <v>0.009520408488663385</v>
+        <v>0.002693665450142333</v>
       </c>
       <c r="D30">
-        <v>0.06898431751628313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08781912240097324</v>
+      </c>
+      <c r="E30">
+        <v>0.0141237899908329</v>
+      </c>
+      <c r="F30">
+        <v>-0.07915829512178661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05046059360088444</v>
+        <v>0.05112110869094467</v>
       </c>
       <c r="C31">
-        <v>0.01702092300343778</v>
+        <v>0.01599541152125355</v>
       </c>
       <c r="D31">
-        <v>0.0222452088196955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02487633975406495</v>
+      </c>
+      <c r="E31">
+        <v>0.02865239996149035</v>
+      </c>
+      <c r="F31">
+        <v>0.001075027466687856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04693901784778499</v>
+        <v>0.05076436260559796</v>
       </c>
       <c r="C32">
-        <v>0.002161304521299741</v>
+        <v>-0.001589423349813746</v>
       </c>
       <c r="D32">
-        <v>0.02263878358517806</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03523406797253009</v>
+      </c>
+      <c r="E32">
+        <v>0.03292868105491193</v>
+      </c>
+      <c r="F32">
+        <v>-0.002980332705684834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09134935735054017</v>
+        <v>0.08952682759364174</v>
       </c>
       <c r="C33">
-        <v>0.0137208713452331</v>
+        <v>0.00684580538408556</v>
       </c>
       <c r="D33">
-        <v>0.08232103075969627</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1034810576930124</v>
+      </c>
+      <c r="E33">
+        <v>0.04702102010813078</v>
+      </c>
+      <c r="F33">
+        <v>-0.04305045301624803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06886948145661247</v>
+        <v>0.06757648850593576</v>
       </c>
       <c r="C34">
-        <v>0.015613289183444</v>
+        <v>0.01021611951393223</v>
       </c>
       <c r="D34">
-        <v>0.09017627685421498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.109320836269288</v>
+      </c>
+      <c r="E34">
+        <v>0.03558532631741059</v>
+      </c>
+      <c r="F34">
+        <v>-0.03295648714754452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02418900802320934</v>
+        <v>0.02624806279594237</v>
       </c>
       <c r="C35">
-        <v>0.003037995952181631</v>
+        <v>0.002922022661045793</v>
       </c>
       <c r="D35">
-        <v>0.006672375819214211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01191812395709786</v>
+      </c>
+      <c r="E35">
+        <v>0.01260592713938084</v>
+      </c>
+      <c r="F35">
+        <v>3.885193103270063e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02591734214712468</v>
+        <v>0.02785302002237431</v>
       </c>
       <c r="C36">
-        <v>0.007726931806843448</v>
+        <v>0.006896282833475468</v>
       </c>
       <c r="D36">
-        <v>0.03914511375752574</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03937161270847846</v>
+      </c>
+      <c r="E36">
+        <v>0.01700565765380486</v>
+      </c>
+      <c r="F36">
+        <v>-0.01412927894417766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0007881597384343474</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006878803516115685</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002530638930722436</v>
+      </c>
+      <c r="E37">
+        <v>1.579985353424703e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.001698462786388594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1139767488182704</v>
+        <v>0.1026769526314768</v>
       </c>
       <c r="C39">
-        <v>0.02378862826065703</v>
+        <v>0.01603861573432605</v>
       </c>
       <c r="D39">
-        <v>0.1430423553844031</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1517836508533609</v>
+      </c>
+      <c r="E39">
+        <v>0.05975014593535009</v>
+      </c>
+      <c r="F39">
+        <v>-0.02097080573684164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03821971390312272</v>
+        <v>0.04310225994454475</v>
       </c>
       <c r="C40">
-        <v>0.009229239253483082</v>
+        <v>0.007471316251528126</v>
       </c>
       <c r="D40">
-        <v>0.01792173858950928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03255135905828137</v>
+      </c>
+      <c r="E40">
+        <v>0.001570974130495379</v>
+      </c>
+      <c r="F40">
+        <v>0.01605727286844269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02562614272365668</v>
+        <v>0.02795410958856426</v>
       </c>
       <c r="C41">
-        <v>0.007326690799070442</v>
+        <v>0.00684742155301618</v>
       </c>
       <c r="D41">
-        <v>0.007917483421135688</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01084877903746048</v>
+      </c>
+      <c r="E41">
+        <v>0.01225384679143549</v>
+      </c>
+      <c r="F41">
+        <v>0.007730383899758234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04222968525880198</v>
+        <v>0.04047973771848681</v>
       </c>
       <c r="C43">
-        <v>0.008237617116626166</v>
+        <v>0.007464794223683686</v>
       </c>
       <c r="D43">
-        <v>0.01528053169392784</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01904865287035443</v>
+      </c>
+      <c r="E43">
+        <v>0.02541071372000694</v>
+      </c>
+      <c r="F43">
+        <v>0.01714965463157616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07036222224648354</v>
+        <v>0.07920529806946169</v>
       </c>
       <c r="C44">
-        <v>0.02541981688949921</v>
+        <v>0.01938363772553607</v>
       </c>
       <c r="D44">
-        <v>0.08940520916246168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09600374677779236</v>
+      </c>
+      <c r="E44">
+        <v>0.06256290742611897</v>
+      </c>
+      <c r="F44">
+        <v>-0.1666221076452229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02164495155444908</v>
+        <v>0.02442723280058853</v>
       </c>
       <c r="C46">
-        <v>0.004077882248750829</v>
+        <v>0.003613857481346999</v>
       </c>
       <c r="D46">
-        <v>0.005971603643734413</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01300627042817301</v>
+      </c>
+      <c r="E46">
+        <v>0.02702173280243663</v>
+      </c>
+      <c r="F46">
+        <v>0.005907085902209382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.052620604028868</v>
+        <v>0.05232781359461984</v>
       </c>
       <c r="C47">
-        <v>0.004741221592280929</v>
+        <v>0.004092233185112601</v>
       </c>
       <c r="D47">
-        <v>0.009067485652569478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01035776964584507</v>
+      </c>
+      <c r="E47">
+        <v>0.02245661045736718</v>
+      </c>
+      <c r="F47">
+        <v>0.03368343780339136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04797630221089032</v>
+        <v>0.05071226916872519</v>
       </c>
       <c r="C48">
-        <v>0.004710818076305736</v>
+        <v>0.002121978205581853</v>
       </c>
       <c r="D48">
-        <v>0.04477228637195414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05029197247032849</v>
+      </c>
+      <c r="E48">
+        <v>-0.004695187471910063</v>
+      </c>
+      <c r="F48">
+        <v>-0.01295415156596232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2020014619562416</v>
+        <v>0.2007259198510987</v>
       </c>
       <c r="C49">
-        <v>0.02179403495542587</v>
+        <v>0.01965731624509761</v>
       </c>
       <c r="D49">
-        <v>-0.01598590913134883</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005374800387526719</v>
+      </c>
+      <c r="E49">
+        <v>0.03279999919405265</v>
+      </c>
+      <c r="F49">
+        <v>-0.04686441200737989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04940732562935098</v>
+        <v>0.05144549497996276</v>
       </c>
       <c r="C50">
-        <v>0.01305986247703073</v>
+        <v>0.01172352708240264</v>
       </c>
       <c r="D50">
-        <v>0.02234779668976354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02332830813633827</v>
+      </c>
+      <c r="E50">
+        <v>0.02964464379575681</v>
+      </c>
+      <c r="F50">
+        <v>-0.009779496911348912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1557805496640068</v>
+        <v>0.149440036222098</v>
       </c>
       <c r="C52">
-        <v>0.02034354787028555</v>
+        <v>0.01847159803949363</v>
       </c>
       <c r="D52">
-        <v>0.04908026924680058</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04236376877442685</v>
+      </c>
+      <c r="E52">
+        <v>0.02256601667674295</v>
+      </c>
+      <c r="F52">
+        <v>-0.042525107794428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1741018353407191</v>
+        <v>0.1698066364822148</v>
       </c>
       <c r="C53">
-        <v>0.02056110226661572</v>
+        <v>0.02104135748854746</v>
       </c>
       <c r="D53">
-        <v>0.01260290785385079</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005495774981252261</v>
+      </c>
+      <c r="E53">
+        <v>0.03014101156237839</v>
+      </c>
+      <c r="F53">
+        <v>-0.07450220598411866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01743438631251869</v>
+        <v>0.02010247405197921</v>
       </c>
       <c r="C54">
-        <v>0.01244838240799704</v>
+        <v>0.010988067253891</v>
       </c>
       <c r="D54">
-        <v>0.02809613098206905</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03411386607160503</v>
+      </c>
+      <c r="E54">
+        <v>0.02140917565438291</v>
+      </c>
+      <c r="F54">
+        <v>0.001624355013966025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1169043122581652</v>
+        <v>0.1159500962375247</v>
       </c>
       <c r="C55">
-        <v>0.01837764584018373</v>
+        <v>0.01854286913380898</v>
       </c>
       <c r="D55">
-        <v>0.01049340673177133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00856262480217059</v>
+      </c>
+      <c r="E55">
+        <v>0.02587603983559483</v>
+      </c>
+      <c r="F55">
+        <v>-0.04723297188887351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806165439848715</v>
+        <v>0.1764536835554692</v>
       </c>
       <c r="C56">
-        <v>0.01840326508365488</v>
+        <v>0.01916195146104779</v>
       </c>
       <c r="D56">
-        <v>0.005467415200087778</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.00279976546194725</v>
+      </c>
+      <c r="E56">
+        <v>0.0331247715471764</v>
+      </c>
+      <c r="F56">
+        <v>-0.05386012509140986</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04847051790119144</v>
+        <v>0.04582860197684557</v>
       </c>
       <c r="C58">
-        <v>0.0058576991471319</v>
+        <v>-0.0004647860789467657</v>
       </c>
       <c r="D58">
-        <v>0.05764721249044724</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07429816729576658</v>
+      </c>
+      <c r="E58">
+        <v>0.03507045334144372</v>
+      </c>
+      <c r="F58">
+        <v>0.03637887807373817</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1628082491468476</v>
+        <v>0.1666763327601831</v>
       </c>
       <c r="C59">
-        <v>0.01438240948068774</v>
+        <v>0.0230564982864621</v>
       </c>
       <c r="D59">
-        <v>-0.2278968968681196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2184781942713279</v>
+      </c>
+      <c r="E59">
+        <v>-0.04917029234642108</v>
+      </c>
+      <c r="F59">
+        <v>0.0379460690854144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2390334206227</v>
+        <v>0.2311201177539383</v>
       </c>
       <c r="C60">
-        <v>0.002250051803982321</v>
+        <v>-0.0008598584158734496</v>
       </c>
       <c r="D60">
-        <v>0.041929716778069</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03942771691395881</v>
+      </c>
+      <c r="E60">
+        <v>0.006166157712739785</v>
+      </c>
+      <c r="F60">
+        <v>-0.002403004959130772</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08491114849041288</v>
+        <v>0.07828951611040837</v>
       </c>
       <c r="C61">
-        <v>0.01743993673727966</v>
+        <v>0.01142048724364105</v>
       </c>
       <c r="D61">
-        <v>0.1030177432357799</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1167200135237718</v>
+      </c>
+      <c r="E61">
+        <v>0.03852078468570935</v>
+      </c>
+      <c r="F61">
+        <v>-0.008395349405981432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.171036856337563</v>
+        <v>0.1686337869963788</v>
       </c>
       <c r="C62">
-        <v>0.02186450526493636</v>
+        <v>0.02163726053174223</v>
       </c>
       <c r="D62">
-        <v>0.006946013576968662</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.004780785679956812</v>
+      </c>
+      <c r="E62">
+        <v>0.0328220304888018</v>
+      </c>
+      <c r="F62">
+        <v>-0.03948167428138085</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04250623407477052</v>
+        <v>0.04627095649800721</v>
       </c>
       <c r="C63">
-        <v>0.005688485867464872</v>
+        <v>0.00174049912503576</v>
       </c>
       <c r="D63">
-        <v>0.04604452502405069</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06021756729914955</v>
+      </c>
+      <c r="E63">
+        <v>0.02509256567817436</v>
+      </c>
+      <c r="F63">
+        <v>-0.0008318625577006337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1130240304876007</v>
+        <v>0.1105578354767587</v>
       </c>
       <c r="C64">
-        <v>0.01548755960142962</v>
+        <v>0.01219353228205253</v>
       </c>
       <c r="D64">
-        <v>0.03295914931639985</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04253655056901186</v>
+      </c>
+      <c r="E64">
+        <v>0.02321278378066936</v>
+      </c>
+      <c r="F64">
+        <v>-0.02496347833383301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1431055300145785</v>
+        <v>0.1520412826011648</v>
       </c>
       <c r="C65">
-        <v>0.03466954417187786</v>
+        <v>0.03505348068524317</v>
       </c>
       <c r="D65">
-        <v>-0.05674106172752129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04681270264963999</v>
+      </c>
+      <c r="E65">
+        <v>0.005994962963842561</v>
+      </c>
+      <c r="F65">
+        <v>-0.03979192100448786</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1370208625989418</v>
+        <v>0.1229790659709028</v>
       </c>
       <c r="C66">
-        <v>0.02207167222235412</v>
+        <v>0.01442989201215067</v>
       </c>
       <c r="D66">
-        <v>0.1237031687216778</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1394685789317998</v>
+      </c>
+      <c r="E66">
+        <v>0.06448383348268739</v>
+      </c>
+      <c r="F66">
+        <v>-0.02691210752426485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06305659744193047</v>
+        <v>0.05607759474615474</v>
       </c>
       <c r="C67">
-        <v>0.005563058531655287</v>
+        <v>0.003067012261756969</v>
       </c>
       <c r="D67">
-        <v>0.05441154417873675</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05650270183030229</v>
+      </c>
+      <c r="E67">
+        <v>0.01731740930144819</v>
+      </c>
+      <c r="F67">
+        <v>0.03536553569343092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1065259934632963</v>
+        <v>0.1161196418578442</v>
       </c>
       <c r="C68">
-        <v>0.02261132270716752</v>
+        <v>0.03359742529162436</v>
       </c>
       <c r="D68">
-        <v>-0.2676956269039584</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2612967858666283</v>
+      </c>
+      <c r="E68">
+        <v>-0.08830505623777993</v>
+      </c>
+      <c r="F68">
+        <v>-0.00175765239101728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03988603147138262</v>
+        <v>0.03868250724656581</v>
       </c>
       <c r="C69">
-        <v>0.002090487961479549</v>
+        <v>0.001239817739030737</v>
       </c>
       <c r="D69">
-        <v>0.006017420174540503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008264703748484311</v>
+      </c>
+      <c r="E69">
+        <v>0.02381952705290517</v>
+      </c>
+      <c r="F69">
+        <v>0.001807222423889299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06651785331266798</v>
+        <v>0.06675457850768418</v>
       </c>
       <c r="C70">
-        <v>-0.02462331678374118</v>
+        <v>-0.02709790708130748</v>
       </c>
       <c r="D70">
-        <v>-0.004218016154526408</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02479786404129868</v>
+      </c>
+      <c r="E70">
+        <v>-0.03217879417576388</v>
+      </c>
+      <c r="F70">
+        <v>0.1807940041636156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1252833607759888</v>
+        <v>0.1363658280008599</v>
       </c>
       <c r="C71">
-        <v>0.02661059346289495</v>
+        <v>0.03809714073912816</v>
       </c>
       <c r="D71">
-        <v>-0.284537986803627</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2714527156071205</v>
+      </c>
+      <c r="E71">
+        <v>-0.09789884162757252</v>
+      </c>
+      <c r="F71">
+        <v>-0.007668998217556237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1382126576606465</v>
+        <v>0.1439683111931267</v>
       </c>
       <c r="C72">
-        <v>0.02786425866261286</v>
+        <v>0.02792480326597403</v>
       </c>
       <c r="D72">
-        <v>0.005536605003866688</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.004859450768019297</v>
+      </c>
+      <c r="E72">
+        <v>0.03705485642367409</v>
+      </c>
+      <c r="F72">
+        <v>-0.02902603256954144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2072345843059988</v>
+        <v>0.2052887017882609</v>
       </c>
       <c r="C73">
-        <v>0.01728634302625147</v>
+        <v>0.01362839864670897</v>
       </c>
       <c r="D73">
-        <v>0.009259143309746497</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01764237298779639</v>
+      </c>
+      <c r="E73">
+        <v>0.06757021240784938</v>
+      </c>
+      <c r="F73">
+        <v>-0.04043986510535118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0941118075118109</v>
+        <v>0.09530023005907805</v>
       </c>
       <c r="C74">
-        <v>0.0144264115701456</v>
+        <v>0.01407910575432445</v>
       </c>
       <c r="D74">
-        <v>0.0194573379809974</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01718404813874525</v>
+      </c>
+      <c r="E74">
+        <v>0.04476739356760594</v>
+      </c>
+      <c r="F74">
+        <v>-0.05352114493161134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.133907114534393</v>
+        <v>0.1266005043468471</v>
       </c>
       <c r="C75">
-        <v>0.03051781058087869</v>
+        <v>0.02914016056058122</v>
       </c>
       <c r="D75">
-        <v>0.03031975986159699</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02852885796448463</v>
+      </c>
+      <c r="E75">
+        <v>0.05683636611343062</v>
+      </c>
+      <c r="F75">
+        <v>-0.02014614475640213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08276345270407806</v>
+        <v>0.0905330887055449</v>
       </c>
       <c r="C77">
-        <v>0.01493550650383401</v>
+        <v>0.008601576170314144</v>
       </c>
       <c r="D77">
-        <v>0.1001793123697611</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1144427344008227</v>
+      </c>
+      <c r="E77">
+        <v>0.04550757463456666</v>
+      </c>
+      <c r="F77">
+        <v>-0.0339451828294834</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09970192946887703</v>
+        <v>0.100762694370019</v>
       </c>
       <c r="C78">
-        <v>0.04407180223115948</v>
+        <v>0.03856510246745845</v>
       </c>
       <c r="D78">
-        <v>0.1089854442467069</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1114672618081943</v>
+      </c>
+      <c r="E78">
+        <v>0.07588672206710345</v>
+      </c>
+      <c r="F78">
+        <v>-0.05196589291091517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1649035874606423</v>
+        <v>0.1631970247219652</v>
       </c>
       <c r="C79">
-        <v>0.02511988327949221</v>
+        <v>0.02414587359443961</v>
       </c>
       <c r="D79">
-        <v>0.01227335885993227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01275099966361201</v>
+      </c>
+      <c r="E79">
+        <v>0.04386890656162961</v>
+      </c>
+      <c r="F79">
+        <v>-0.01213098052097155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0808239926397164</v>
+        <v>0.07921843232488422</v>
       </c>
       <c r="C80">
-        <v>0.001190980321108312</v>
+        <v>-0.0008491977953800359</v>
       </c>
       <c r="D80">
-        <v>0.04940221795996397</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05421173953847872</v>
+      </c>
+      <c r="E80">
+        <v>0.0323646617268167</v>
+      </c>
+      <c r="F80">
+        <v>0.02492312547046085</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1204904520020506</v>
+        <v>0.1175585248857598</v>
       </c>
       <c r="C81">
-        <v>0.03250964093023678</v>
+        <v>0.03270313362206046</v>
       </c>
       <c r="D81">
-        <v>0.02346094331465868</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01380889843329105</v>
+      </c>
+      <c r="E81">
+        <v>0.05463981358296843</v>
+      </c>
+      <c r="F81">
+        <v>-0.01794455401906255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1661975164448203</v>
+        <v>0.1655500130331926</v>
       </c>
       <c r="C82">
-        <v>0.02587620784354618</v>
+        <v>0.02652990310290378</v>
       </c>
       <c r="D82">
-        <v>0.01327772125733212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0021077210060044</v>
+      </c>
+      <c r="E82">
+        <v>0.02826055564277567</v>
+      </c>
+      <c r="F82">
+        <v>-0.08127034925790265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06318570572312651</v>
+        <v>0.05751555934360874</v>
       </c>
       <c r="C83">
-        <v>0.005597403698958644</v>
+        <v>0.003248060932797998</v>
       </c>
       <c r="D83">
-        <v>0.04176175087687671</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04845678802213318</v>
+      </c>
+      <c r="E83">
+        <v>0.001337434645584391</v>
+      </c>
+      <c r="F83">
+        <v>0.03489573270170507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06338022057105866</v>
+        <v>0.05752095063734437</v>
       </c>
       <c r="C84">
-        <v>0.01428133299793881</v>
+        <v>0.01104964555432929</v>
       </c>
       <c r="D84">
-        <v>0.06595865192628822</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07223726956313765</v>
+      </c>
+      <c r="E84">
+        <v>0.01424789710376933</v>
+      </c>
+      <c r="F84">
+        <v>-0.01533642324972605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1381626883395302</v>
+        <v>0.1343962432640828</v>
       </c>
       <c r="C85">
-        <v>0.02930472701775909</v>
+        <v>0.02917469621319963</v>
       </c>
       <c r="D85">
-        <v>0.01592247513304372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009416063388461663</v>
+      </c>
+      <c r="E85">
+        <v>0.03649218027752224</v>
+      </c>
+      <c r="F85">
+        <v>-0.04719854268277884</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1008773009089837</v>
+        <v>0.09322434479536744</v>
       </c>
       <c r="C86">
-        <v>-0.002607217667343099</v>
+        <v>-0.005720357461593528</v>
       </c>
       <c r="D86">
-        <v>0.003062590174770301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0503617579922361</v>
+      </c>
+      <c r="E86">
+        <v>0.2172350001990053</v>
+      </c>
+      <c r="F86">
+        <v>0.9007864354721438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09961183439955527</v>
+        <v>0.09373676900455052</v>
       </c>
       <c r="C87">
-        <v>0.02821347731434129</v>
+        <v>0.01956617552901008</v>
       </c>
       <c r="D87">
-        <v>0.06988519012061946</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09600711020868971</v>
+      </c>
+      <c r="E87">
+        <v>-0.05131569627628707</v>
+      </c>
+      <c r="F87">
+        <v>-0.05204337879317135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06000817877567841</v>
+        <v>0.06032383887435805</v>
       </c>
       <c r="C88">
-        <v>0.005261008623787453</v>
+        <v>0.002647176232851472</v>
       </c>
       <c r="D88">
-        <v>0.05441301781038792</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04983463643842934</v>
+      </c>
+      <c r="E88">
+        <v>0.02444896827335551</v>
+      </c>
+      <c r="F88">
+        <v>-0.01442738630494141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1178178272652427</v>
+        <v>0.1270053456788404</v>
       </c>
       <c r="C89">
-        <v>0.003740754809467854</v>
+        <v>0.01339938216239021</v>
       </c>
       <c r="D89">
-        <v>-0.2537199816577262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2449478616447641</v>
+      </c>
+      <c r="E89">
+        <v>-0.09243573330680131</v>
+      </c>
+      <c r="F89">
+        <v>0.00779926757822709</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1364518634808754</v>
+        <v>0.150923778000415</v>
       </c>
       <c r="C90">
-        <v>0.02315048783805265</v>
+        <v>0.03477572456154596</v>
       </c>
       <c r="D90">
-        <v>-0.269283449054168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2685703494253721</v>
+      </c>
+      <c r="E90">
+        <v>-0.1138176049517886</v>
+      </c>
+      <c r="F90">
+        <v>0.007808761359256825</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1208476161174136</v>
+        <v>0.1210067085462171</v>
       </c>
       <c r="C91">
-        <v>0.02026083655452987</v>
+        <v>0.02080084483938106</v>
       </c>
       <c r="D91">
-        <v>-0.008159325443541783</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01622337492891828</v>
+      </c>
+      <c r="E91">
+        <v>0.05369110195239107</v>
+      </c>
+      <c r="F91">
+        <v>0.001530717545335397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1390302190288443</v>
+        <v>0.1468877364114331</v>
       </c>
       <c r="C92">
-        <v>0.01361642599027439</v>
+        <v>0.02563999652917062</v>
       </c>
       <c r="D92">
-        <v>-0.3047482563831131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2913648546928343</v>
+      </c>
+      <c r="E92">
+        <v>-0.1023711536453067</v>
+      </c>
+      <c r="F92">
+        <v>0.01964575605496218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1405259371239376</v>
+        <v>0.1524010667872169</v>
       </c>
       <c r="C93">
-        <v>0.01918748182449212</v>
+        <v>0.02965336892208015</v>
       </c>
       <c r="D93">
-        <v>-0.2700140318776178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.265103588363157</v>
+      </c>
+      <c r="E93">
+        <v>-0.07626505458963798</v>
+      </c>
+      <c r="F93">
+        <v>-0.002681941164816719</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1341731079263397</v>
+        <v>0.1273279052898774</v>
       </c>
       <c r="C94">
-        <v>0.02730933369394941</v>
+        <v>0.02548585762830302</v>
       </c>
       <c r="D94">
-        <v>0.04370258922462537</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03980654189654838</v>
+      </c>
+      <c r="E94">
+        <v>0.05706771966173405</v>
+      </c>
+      <c r="F94">
+        <v>-0.03216940544027738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1240986929266771</v>
+        <v>0.1269150968110012</v>
       </c>
       <c r="C95">
-        <v>0.009459414292554345</v>
+        <v>0.003354744579229431</v>
       </c>
       <c r="D95">
-        <v>0.08653579489100077</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09880264124805088</v>
+      </c>
+      <c r="E95">
+        <v>0.05379702750423177</v>
+      </c>
+      <c r="F95">
+        <v>-0.0006791146930425261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1204164683552333</v>
+        <v>0.1145506033892902</v>
       </c>
       <c r="C96">
-        <v>-0.9869711396384734</v>
+        <v>-0.9865619263601862</v>
       </c>
       <c r="D96">
-        <v>-0.01314250456637299</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05153923730158432</v>
+      </c>
+      <c r="E96">
+        <v>0.05242292563355711</v>
+      </c>
+      <c r="F96">
+        <v>-0.04204967661550754</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1941204169455437</v>
+        <v>0.1945929112644035</v>
       </c>
       <c r="C97">
-        <v>-0.005295588113812251</v>
+        <v>-0.005559426214018544</v>
       </c>
       <c r="D97">
-        <v>-0.01335578821432143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02118142267135478</v>
+      </c>
+      <c r="E97">
+        <v>0.02034235037427801</v>
+      </c>
+      <c r="F97">
+        <v>0.1148092649831653</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1999254294664907</v>
+        <v>0.206511804618182</v>
       </c>
       <c r="C98">
-        <v>0.01178096084751598</v>
+        <v>0.007732509366894502</v>
       </c>
       <c r="D98">
-        <v>0.01012508574551661</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0145078070488819</v>
+      </c>
+      <c r="E98">
+        <v>-0.07596573391196579</v>
+      </c>
+      <c r="F98">
+        <v>0.09104346940404934</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05524271576583861</v>
+        <v>0.05565084808364987</v>
       </c>
       <c r="C99">
-        <v>-0.001979338520683478</v>
+        <v>-0.004119206407513547</v>
       </c>
       <c r="D99">
-        <v>0.02611293050891794</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03839064748571469</v>
+      </c>
+      <c r="E99">
+        <v>0.02156976668186349</v>
+      </c>
+      <c r="F99">
+        <v>-0.004172863218032177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1426636596243001</v>
+        <v>0.1288611964789269</v>
       </c>
       <c r="C100">
-        <v>-0.03866333375813873</v>
+        <v>-0.05171963100922145</v>
       </c>
       <c r="D100">
-        <v>0.4031062256955943</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3516814104517291</v>
+      </c>
+      <c r="E100">
+        <v>-0.8870183591005488</v>
+      </c>
+      <c r="F100">
+        <v>0.1440416393141798</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02524689531121125</v>
+        <v>0.02859739422945166</v>
       </c>
       <c r="C101">
-        <v>0.009536069976856886</v>
+        <v>0.008863456338262648</v>
       </c>
       <c r="D101">
-        <v>0.02497775333442304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03083645865064125</v>
+      </c>
+      <c r="E101">
+        <v>0.01229846277100301</v>
+      </c>
+      <c r="F101">
+        <v>0.01412610611643544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
